--- a/CiPA28.xlsx
+++ b/CiPA28.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - UPV\POSTDOC\Proyectos\SimCardioTest\Simula\7-ecg\Sent\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upvedues-my.sharepoint.com/personal/mamofe_upv_edu_es/Documents/POSTDOC/Proyectos/SimCardioTest/Simula/7-ecg/Sent/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="14_{820739BE-A109-46E1-AD68-3E06850C3B5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{D26ECE94-1944-4030-9476-15DA19A51384}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{027CD972-A636-4DB0-ACD4-5B1392EE6B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A264A3E9-8FA3-4E4C-937D-72D5EEB2405F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2505763F-C0DE-45D9-9152-C347D67BEC19}"/>
+    <workbookView xWindow="-19310" yWindow="-1270" windowWidth="19420" windowHeight="11500" xr2:uid="{2505763F-C0DE-45D9-9152-C347D67BEC19}"/>
   </bookViews>
   <sheets>
     <sheet name="fraction" sheetId="4" r:id="rId1"/>
@@ -26,12 +26,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="61">
   <si>
     <t>Sotalol</t>
   </si>
@@ -211,6 +222,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>TdP</t>
   </si>
 </sst>
 </file>
@@ -272,7 +286,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,13 +306,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,7 +418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -413,89 +433,100 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,9 +546,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -555,7 +586,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -661,7 +692,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -803,7 +834,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -811,13 +842,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85AA3245-A2F9-47AC-BC55-B58C081B6EC1}">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,1407 +861,1061 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="32" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="32" t="s">
+      <c r="G1" s="29"/>
+      <c r="H1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="35" t="s">
+      <c r="I1" s="30"/>
+      <c r="J1" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="34"/>
-      <c r="L1" s="35" t="s">
+      <c r="K1" s="30"/>
+      <c r="L1" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="34"/>
-      <c r="N1" s="35" t="s">
+      <c r="M1" s="30"/>
+      <c r="N1" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="35" t="s">
+      <c r="O1" s="30"/>
+      <c r="P1" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="35" t="s">
+      <c r="Q1" s="32"/>
+      <c r="R1" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="S1" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="T1" s="31" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="44">
+      <c r="B2" s="37">
         <v>0</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45">
-        <v>1</v>
-      </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="45">
-        <v>1</v>
-      </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="45">
-        <v>1</v>
-      </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="48">
-        <v>1</v>
-      </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48">
-        <v>1</v>
-      </c>
-      <c r="M2" s="47"/>
-      <c r="N2" s="48">
-        <v>1</v>
-      </c>
-      <c r="O2" s="47"/>
-      <c r="P2" s="48">
-        <v>1</v>
-      </c>
-      <c r="R2" s="50" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="38">
+        <v>1</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38">
+        <v>1</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38">
+        <v>1</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39">
+        <v>1</v>
+      </c>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39">
+        <v>1</v>
+      </c>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39">
+        <v>1</v>
+      </c>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39">
+        <v>1</v>
+      </c>
+      <c r="R2" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="S2" s="51">
-        <v>420</v>
-      </c>
-      <c r="T2" s="52">
-        <v>437</v>
-      </c>
+      <c r="S2" s="42"/>
+      <c r="T2" s="43"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3">
         <v>100</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="27">
-        <f>1/(1+(fraction!B3/'IC50'!C2)^'IC50'!D2)</f>
+      <c r="D3" s="6">
+        <f>1/(1+(fraction!B3/'IC50'!C3)^'IC50'!D3)</f>
         <v>0.84760239514262725</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27">
-        <f>1/(1+(fraction!$B3/'IC50'!E2)^'IC50'!F2)</f>
+      <c r="F3" s="6">
+        <f>1/(1+(fraction!$B3/'IC50'!E3)^'IC50'!F3)</f>
         <v>0.95833333333333337</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27">
-        <f>1/(1+(fraction!$B3/'IC50'!I2)^'IC50'!J2)</f>
+      <c r="J3" s="6">
+        <f>1/(1+(fraction!$B3/'IC50'!I3)^'IC50'!J3)</f>
         <v>0.99272688034979628</v>
       </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8" t="s">
+      <c r="R3" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="38">
-        <v>437</v>
-      </c>
-      <c r="T3" s="40">
-        <v>477</v>
-      </c>
+      <c r="S3" s="33"/>
+      <c r="T3" s="34"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4">
         <v>121.96501473193264</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="27">
-        <f>1/(1+(fraction!B4/'IC50'!C3)^'IC50'!D3)</f>
+      <c r="D4" s="6">
+        <f>1/(1+(fraction!B4/'IC50'!C4)^'IC50'!D4)</f>
         <v>0.75702486995619334</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27">
-        <f>1/(1+(fraction!$B4/'IC50'!E3)^'IC50'!F3)</f>
+      <c r="F4" s="6">
+        <f>1/(1+(fraction!$B4/'IC50'!E4)^'IC50'!F4)</f>
         <v>0.99999999473514634</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27">
-        <f>1/(1+(fraction!$B4/'IC50'!G3)^'IC50'!H3)</f>
+      <c r="H4" s="6">
+        <f>1/(1+(fraction!$B4/'IC50'!G4)^'IC50'!H4)</f>
         <v>0.9916201200105812</v>
       </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27">
-        <f>1/(1+(fraction!$B4/'IC50'!I3)^'IC50'!J3)</f>
+      <c r="J4" s="6">
+        <f>1/(1+(fraction!$B4/'IC50'!I4)^'IC50'!J4)</f>
         <v>0.99999999465473355</v>
       </c>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27">
-        <f>1/(1+(fraction!$B4/'IC50'!K3)^'IC50'!L3)</f>
+      <c r="L4" s="6">
+        <f>1/(1+(fraction!$B4/'IC50'!K4)^'IC50'!L4)</f>
         <v>0.91986345707597328</v>
       </c>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8" t="s">
+      <c r="R4" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="38">
-        <v>473</v>
-      </c>
-      <c r="T4" s="40">
-        <v>504</v>
-      </c>
+      <c r="S4" s="33"/>
+      <c r="T4" s="34"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="7">
         <v>23.463000000000001</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="27">
-        <f>1/(1+(fraction!B5/'IC50'!C4)^'IC50'!D4)</f>
+      <c r="D5" s="6">
+        <f>1/(1+(fraction!B5/'IC50'!C5)^'IC50'!D5)</f>
         <v>0.73477046900964249</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27">
-        <f>1/(1+(fraction!$B5/'IC50'!E4)^'IC50'!F4)</f>
+      <c r="F5" s="6">
+        <f>1/(1+(fraction!$B5/'IC50'!E5)^'IC50'!F5)</f>
         <v>0.9714070305967254</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27">
-        <f>1/(1+(fraction!$B5/'IC50'!G4)^'IC50'!H4)</f>
+      <c r="H5" s="6">
+        <f>1/(1+(fraction!$B5/'IC50'!G5)^'IC50'!H5)</f>
         <v>0.99773296053430538</v>
       </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27">
-        <f>1/(1+(fraction!$B5/'IC50'!I4)^'IC50'!J4)</f>
+      <c r="J5" s="6">
+        <f>1/(1+(fraction!$B5/'IC50'!I5)^'IC50'!J5)</f>
         <v>0.98351695829115326</v>
       </c>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27">
-        <f>1/(1+(fraction!$B5/'IC50'!K4)^'IC50'!L4)</f>
+      <c r="L5" s="6">
+        <f>1/(1+(fraction!$B5/'IC50'!K5)^'IC50'!L5)</f>
         <v>0.99622991251012494</v>
       </c>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27">
-        <f>1/(1+(fraction!$B5/'IC50'!O4)^'IC50'!P4)</f>
+      <c r="P5" s="6">
+        <f>1/(1+(fraction!$B5/'IC50'!O5)^'IC50'!P5)</f>
         <v>0.999999998936693</v>
       </c>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8" t="s">
+      <c r="R5" t="s">
         <v>52</v>
       </c>
-      <c r="S5" s="39">
-        <v>473</v>
-      </c>
-      <c r="T5" s="39">
-        <v>507</v>
-      </c>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6">
         <v>78.4258021453834</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="27">
-        <f>1/(1+(fraction!B6/'IC50'!C5)^'IC50'!D5)</f>
+      <c r="D6" s="6">
+        <f>1/(1+(fraction!B6/'IC50'!C6)^'IC50'!D6)</f>
         <v>0.89233522218131045</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27">
-        <f>1/(1+(fraction!$B6/'IC50'!E5)^'IC50'!F5)</f>
+      <c r="F6" s="6">
+        <f>1/(1+(fraction!$B6/'IC50'!E6)^'IC50'!F6)</f>
         <v>0.99999916764726726</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27">
-        <f>1/(1+(fraction!$B6/'IC50'!G5)^'IC50'!H5)</f>
+      <c r="H6" s="6">
+        <f>1/(1+(fraction!$B6/'IC50'!G6)^'IC50'!H6)</f>
         <v>0.97955312122839033</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27">
-        <f>1/(1+(fraction!$B6/'IC50'!I5)^'IC50'!J5)</f>
+      <c r="J6" s="6">
+        <f>1/(1+(fraction!$B6/'IC50'!I6)^'IC50'!J6)</f>
         <v>0.99984748791864697</v>
       </c>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27">
-        <f>1/(1+(fraction!$B6/'IC50'!K5)^'IC50'!L5)</f>
+      <c r="L6" s="6">
+        <f>1/(1+(fraction!$B6/'IC50'!K6)^'IC50'!L6)</f>
         <v>0.99258625020279689</v>
       </c>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27">
-        <f>1/(1+(fraction!$B6/'IC50'!M5)^'IC50'!N5)</f>
+      <c r="N6" s="6">
+        <f>1/(1+(fraction!$B6/'IC50'!M6)^'IC50'!N6)</f>
         <v>0.96579797994022665</v>
       </c>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27">
-        <f>1/(1+(fraction!$B6/'IC50'!O5)^'IC50'!P5)</f>
+      <c r="P6" s="6">
+        <f>1/(1+(fraction!$B6/'IC50'!O6)^'IC50'!P6)</f>
         <v>0.9928146702029077</v>
       </c>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8" t="s">
+      <c r="R6" t="s">
         <v>51</v>
       </c>
-      <c r="S6" s="39">
-        <v>431</v>
-      </c>
-      <c r="T6" s="41">
-        <v>467</v>
-      </c>
+      <c r="S6" s="33"/>
+      <c r="T6" s="34"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>2.7471000000000001</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="27">
-        <f>1/(1+(fraction!B7/'IC50'!C6)^'IC50'!D6)</f>
+      <c r="D7" s="6">
+        <f>1/(1+(fraction!B7/'IC50'!C7)^'IC50'!D7)</f>
         <v>0.98520256982199017</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27">
-        <f>1/(1+(fraction!$B7/'IC50'!E6)^'IC50'!F6)</f>
+      <c r="F7" s="6">
+        <f>1/(1+(fraction!$B7/'IC50'!E7)^'IC50'!F7)</f>
         <v>0.9999999980447607</v>
       </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27">
-        <f>1/(1+(fraction!$B7/'IC50'!G6)^'IC50'!H6)</f>
+      <c r="H7" s="6">
+        <f>1/(1+(fraction!$B7/'IC50'!G7)^'IC50'!H7)</f>
         <v>0.99998443688732408</v>
       </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27">
-        <f>1/(1+(fraction!$B7/'IC50'!I6)^'IC50'!J6)</f>
-        <v>1</v>
-      </c>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27">
-        <f>1/(1+(fraction!$B7/'IC50'!K6)^'IC50'!L6)</f>
+      <c r="J7" s="6">
+        <f>1/(1+(fraction!$B7/'IC50'!I7)^'IC50'!J7)</f>
+        <v>1</v>
+      </c>
+      <c r="L7" s="6">
+        <f>1/(1+(fraction!$B7/'IC50'!K7)^'IC50'!L7)</f>
         <v>0.99958984715920363</v>
       </c>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27">
-        <f>1/(1+(fraction!$B7/'IC50'!M6)^'IC50'!N6)</f>
+      <c r="N7" s="6">
+        <f>1/(1+(fraction!$B7/'IC50'!M7)^'IC50'!N7)</f>
         <v>0.99044193523682367</v>
       </c>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27">
-        <f>1/(1+(fraction!$B7/'IC50'!O6)^'IC50'!P6)</f>
+      <c r="P7" s="6">
+        <f>1/(1+(fraction!$B7/'IC50'!O7)^'IC50'!P7)</f>
         <v>0.90528337668841308</v>
       </c>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8" t="s">
+      <c r="R7" t="s">
         <v>51</v>
       </c>
-      <c r="S7" s="38">
-        <v>421</v>
-      </c>
-      <c r="T7" s="40">
-        <v>445</v>
-      </c>
+      <c r="S7" s="33"/>
+      <c r="T7" s="34"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8">
         <v>874.38599999999997</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="27">
-        <f>1/(1+(fraction!B8/'IC50'!C7)^'IC50'!D7)</f>
+      <c r="D8" s="6">
+        <f>1/(1+(fraction!B8/'IC50'!C8)^'IC50'!D8)</f>
         <v>0.99195777477188984</v>
       </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27">
-        <f>1/(1+(fraction!$B8/'IC50'!E7)^'IC50'!F7)</f>
+      <c r="F8" s="6">
+        <f>1/(1+(fraction!$B8/'IC50'!E8)^'IC50'!F8)</f>
         <v>0.99999999999879763</v>
       </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27">
-        <f>1/(1+(fraction!$B8/'IC50'!G7)^'IC50'!H7)</f>
+      <c r="H8" s="6">
+        <f>1/(1+(fraction!$B8/'IC50'!G8)^'IC50'!H8)</f>
         <v>0.99999691840413185</v>
       </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27">
-        <f>1/(1+(fraction!$B8/'IC50'!I7)^'IC50'!J7)</f>
+      <c r="J8" s="6">
+        <f>1/(1+(fraction!$B8/'IC50'!I8)^'IC50'!J8)</f>
         <v>0.99999959312276865</v>
       </c>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8" t="s">
+      <c r="R8" t="s">
         <v>51</v>
       </c>
-      <c r="S8" s="38">
-        <v>421</v>
-      </c>
-      <c r="T8" s="38">
-        <v>443</v>
-      </c>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>28.047999999999998</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="27">
-        <f>1/(1+(fraction!B9/'IC50'!C8)^'IC50'!D8)</f>
+      <c r="D9" s="6">
+        <f>1/(1+(fraction!B9/'IC50'!C9)^'IC50'!D9)</f>
         <v>0.98164455566840836</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27">
-        <f>1/(1+(fraction!$B9/'IC50'!E8)^'IC50'!F8)</f>
+      <c r="F9" s="6">
+        <f>1/(1+(fraction!$B9/'IC50'!E9)^'IC50'!F9)</f>
         <v>0.9999999958875585</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27">
-        <f>1/(1+(fraction!$B9/'IC50'!G8)^'IC50'!H8)</f>
+      <c r="H9" s="6">
+        <f>1/(1+(fraction!$B9/'IC50'!G9)^'IC50'!H9)</f>
         <v>0.99783342623102111</v>
       </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27">
-        <f>1/(1+(fraction!$B9/'IC50'!I8)^'IC50'!J8)</f>
+      <c r="J9" s="6">
+        <f>1/(1+(fraction!$B9/'IC50'!I9)^'IC50'!J9)</f>
         <v>0.99999999998052314</v>
       </c>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8" t="s">
+      <c r="R9" t="s">
         <v>51</v>
       </c>
-      <c r="S9" s="38">
-        <v>423</v>
-      </c>
-      <c r="T9" s="40">
-        <v>445</v>
-      </c>
+      <c r="S9" s="33"/>
+      <c r="T9" s="34"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10">
         <v>188.03280519107693</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="27">
-        <f>1/(1+(fraction!B10/'IC50'!C9)^'IC50'!D9)</f>
+      <c r="D10" s="6">
+        <f>1/(1+(fraction!B10/'IC50'!C10)^'IC50'!D10)</f>
         <v>0.99539554915325901</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27">
-        <f>1/(1+(fraction!$B10/'IC50'!E9)^'IC50'!F9)</f>
+      <c r="F10" s="6">
+        <f>1/(1+(fraction!$B10/'IC50'!E10)^'IC50'!F10)</f>
         <v>0.9861107734117045</v>
       </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27">
-        <f>1/(1+(fraction!$B10/'IC50'!G9)^'IC50'!H9)</f>
+      <c r="H10" s="6">
+        <f>1/(1+(fraction!$B10/'IC50'!G10)^'IC50'!H10)</f>
         <v>0.96541500582841122</v>
       </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27">
-        <f>1/(1+(fraction!$B10/'IC50'!I9)^'IC50'!J9)</f>
+      <c r="J10" s="6">
+        <f>1/(1+(fraction!$B10/'IC50'!I10)^'IC50'!J10)</f>
         <v>0.91763902613946913</v>
       </c>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27">
-        <f>1/(1+(fraction!$B10/'IC50'!K9)^'IC50'!L9)</f>
+      <c r="L10" s="6">
+        <f>1/(1+(fraction!$B10/'IC50'!K10)^'IC50'!L10)</f>
         <v>0.99705913996816287</v>
       </c>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27">
-        <f>1/(1+(fraction!$B10/'IC50'!O9)^'IC50'!P9)</f>
+      <c r="P10" s="6">
+        <f>1/(1+(fraction!$B10/'IC50'!O10)^'IC50'!P10)</f>
         <v>0.96454026537895865</v>
       </c>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8" t="s">
+      <c r="R10" t="s">
         <v>53</v>
       </c>
-      <c r="S10" s="38">
-        <v>420</v>
-      </c>
-      <c r="T10" s="40">
-        <v>434</v>
-      </c>
+      <c r="S10" s="33"/>
+      <c r="T10" s="34"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11">
         <v>11782.92</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="27">
-        <f>1/(1+(fraction!B11/'IC50'!C10)^'IC50'!D10)</f>
+      <c r="D11" s="6">
+        <f>1/(1+(fraction!B11/'IC50'!C11)^'IC50'!D11)</f>
         <v>0.75606149447654447</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27">
-        <f>1/(1+(fraction!$B11/'IC50'!E10)^'IC50'!F10)</f>
+      <c r="F11" s="6">
+        <f>1/(1+(fraction!$B11/'IC50'!E11)^'IC50'!F11)</f>
         <v>0.95808014154197607</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27">
-        <f>1/(1+(fraction!$B11/'IC50'!I10)^'IC50'!J10)</f>
+      <c r="J11" s="6">
+        <f>1/(1+(fraction!$B11/'IC50'!I11)^'IC50'!J11)</f>
         <v>0.98876193424304903</v>
       </c>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27">
-        <f>1/(1+(fraction!$B11/'IC50'!K10)^'IC50'!L10)</f>
+      <c r="L11" s="6">
+        <f>1/(1+(fraction!$B11/'IC50'!K11)^'IC50'!L11)</f>
         <v>0.87409112688511958</v>
       </c>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8" t="s">
+      <c r="R11" t="s">
         <v>52</v>
       </c>
-      <c r="S11" s="38">
-        <v>478</v>
-      </c>
-      <c r="T11" s="40">
-        <v>508</v>
-      </c>
+      <c r="S11" s="33"/>
+      <c r="T11" s="34"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>4.7549999999999999</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="27">
-        <f>1/(1+(fraction!B12/'IC50'!C11)^'IC50'!D11)</f>
+      <c r="D12" s="6">
+        <f>1/(1+(fraction!B12/'IC50'!C12)^'IC50'!D12)</f>
         <v>0.62720501764014114</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27">
-        <f>1/(1+(fraction!$B12/'IC50'!E11)^'IC50'!F11)</f>
+      <c r="F12" s="6">
+        <f>1/(1+(fraction!$B12/'IC50'!E12)^'IC50'!F12)</f>
         <v>0.99996785093217599</v>
       </c>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27">
-        <f>1/(1+(fraction!$B12/'IC50'!G11)^'IC50'!H11)</f>
+      <c r="H12" s="6">
+        <f>1/(1+(fraction!$B12/'IC50'!G12)^'IC50'!H12)</f>
         <v>0.99999368664031563</v>
       </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27">
-        <f>1/(1+(fraction!$B12/'IC50'!I11)^'IC50'!J11)</f>
+      <c r="J12" s="6">
+        <f>1/(1+(fraction!$B12/'IC50'!I12)^'IC50'!J12)</f>
         <v>0.99982194182272033</v>
       </c>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27">
-        <f>1/(1+(fraction!$B12/'IC50'!K11)^'IC50'!L11)</f>
+      <c r="L12" s="6">
+        <f>1/(1+(fraction!$B12/'IC50'!K12)^'IC50'!L12)</f>
         <v>0.99995245226089513</v>
       </c>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27">
-        <f>1/(1+(fraction!$B12/'IC50'!O11)^'IC50'!P11)</f>
+      <c r="P12" s="6">
+        <f>1/(1+(fraction!$B12/'IC50'!O12)^'IC50'!P12)</f>
         <v>0.75020916357999279</v>
       </c>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8" t="s">
+      <c r="R12" t="s">
         <v>52</v>
       </c>
-      <c r="S12" s="38">
-        <v>499</v>
-      </c>
-      <c r="T12" s="40">
-        <v>541</v>
-      </c>
+      <c r="S12" s="33"/>
+      <c r="T12" s="34"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13">
         <v>500</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="27">
-        <f>1/(1+(fraction!B13/'IC50'!C12)^'IC50'!D12)</f>
-        <v>0.5901639344262295</v>
-      </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27">
-        <f>1/(1+(fraction!$B13/'IC50'!E12)^'IC50'!F12)</f>
+      <c r="D13" s="6">
+        <f>1/(1+(fraction!B13/'IC50'!C13)^'IC50'!D13)</f>
+        <v>0.76415094339622636</v>
+      </c>
+      <c r="F13" s="6">
+        <f>1/(1+(fraction!$B13/'IC50'!E13)^'IC50'!F13)</f>
         <v>0.99892613675566999</v>
       </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27">
-        <f>1/(1+(fraction!$B13/'IC50'!G12)^'IC50'!H12)</f>
+      <c r="H13" s="6">
+        <f>1/(1+(fraction!$B13/'IC50'!G13)^'IC50'!H13)</f>
         <v>0.99999731927319557</v>
       </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27">
-        <f>1/(1+(fraction!$B13/'IC50'!I12)^'IC50'!J12)</f>
+      <c r="J13" s="6">
+        <f>1/(1+(fraction!$B13/'IC50'!I13)^'IC50'!J13)</f>
         <v>0.99956729163009794</v>
       </c>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8" t="s">
+      <c r="R13" t="s">
         <v>51</v>
       </c>
-      <c r="S13" s="38">
-        <v>466</v>
-      </c>
-      <c r="T13" s="40">
-        <v>498</v>
-      </c>
+      <c r="S13" s="33"/>
+      <c r="T13" s="34"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14">
         <v>37.69</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="27">
-        <f>1/(1+(fraction!B14/'IC50'!C13)^'IC50'!D13)</f>
+      <c r="D14" s="6">
+        <f>1/(1+(fraction!B14/'IC50'!C14)^'IC50'!D14)</f>
         <v>0.89065537149322582</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27">
-        <f>1/(1+(fraction!$B14/'IC50'!E13)^'IC50'!F13)</f>
+      <c r="F14" s="6">
+        <f>1/(1+(fraction!$B14/'IC50'!E14)^'IC50'!F14)</f>
         <v>0.99964281501319585</v>
       </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27">
-        <f>1/(1+(fraction!$B14/'IC50'!I13)^'IC50'!J13)</f>
+      <c r="J14" s="6">
+        <f>1/(1+(fraction!$B14/'IC50'!I14)^'IC50'!J14)</f>
         <v>0.99788281846610671</v>
       </c>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8" t="s">
+      <c r="R14" t="s">
         <v>51</v>
       </c>
-      <c r="S14" s="39">
-        <v>432</v>
-      </c>
-      <c r="T14" s="41">
-        <v>466</v>
-      </c>
+      <c r="S14" s="33"/>
+      <c r="T14" s="34"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="7">
         <v>92.778000000000006</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="27">
-        <f>1/(1+(fraction!B15/'IC50'!C14)^'IC50'!D14)</f>
+      <c r="D15" s="6">
+        <f>1/(1+(fraction!B15/'IC50'!C15)^'IC50'!D15)</f>
         <v>0.71694866647548039</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27">
-        <f>1/(1+(fraction!$B15/'IC50'!E14)^'IC50'!F14)</f>
+      <c r="F15" s="6">
+        <f>1/(1+(fraction!$B15/'IC50'!E15)^'IC50'!F15)</f>
         <v>0.97006682731035088</v>
       </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27">
-        <f>1/(1+(fraction!$B15/'IC50'!G14)^'IC50'!H14)</f>
+      <c r="H15" s="6">
+        <f>1/(1+(fraction!$B15/'IC50'!G15)^'IC50'!H15)</f>
         <v>0.89011643801342211</v>
       </c>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27">
-        <f>1/(1+(fraction!$B15/'IC50'!I14)^'IC50'!J14)</f>
+      <c r="J15" s="6">
+        <f>1/(1+(fraction!$B15/'IC50'!I15)^'IC50'!J15)</f>
         <v>0.99999821892412466</v>
       </c>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8" t="s">
+      <c r="R15" t="s">
         <v>52</v>
       </c>
-      <c r="S15" s="38">
-        <v>469</v>
-      </c>
-      <c r="T15" s="38">
-        <v>505</v>
-      </c>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="7">
         <v>0.215</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="27">
-        <f>1/(1+(fraction!B16/'IC50'!C15)^'IC50'!D15)</f>
+      <c r="D16" s="6">
+        <f>1/(1+(fraction!B16/'IC50'!C16)^'IC50'!D16)</f>
         <v>0.99999534888133568</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27">
-        <f>1/(1+(fraction!$B16/'IC50'!E15)^'IC50'!F15)</f>
+      <c r="F16" s="6">
+        <f>1/(1+(fraction!$B16/'IC50'!E16)^'IC50'!F16)</f>
         <v>0.99999980552450529</v>
       </c>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27">
-        <f>1/(1+(fraction!$B16/'IC50'!G15)^'IC50'!H15)</f>
+      <c r="H16" s="6">
+        <f>1/(1+(fraction!$B16/'IC50'!G16)^'IC50'!H16)</f>
         <v>0.99999999993544098</v>
       </c>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27">
-        <f>1/(1+(fraction!$B16/'IC50'!I15)^'IC50'!J15)</f>
+      <c r="J16" s="6">
+        <f>1/(1+(fraction!$B16/'IC50'!I16)^'IC50'!J16)</f>
         <v>0.98957316156700337</v>
       </c>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8" t="s">
+      <c r="R16" t="s">
         <v>53</v>
       </c>
-      <c r="S16" s="38">
-        <v>420</v>
-      </c>
-      <c r="T16" s="40">
-        <v>440</v>
-      </c>
+      <c r="S16" s="33"/>
+      <c r="T16" s="34"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17">
         <v>493.30622950369315</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="27">
-        <f>1/(1+(fraction!B17/'IC50'!C16)^'IC50'!D16)</f>
+      <c r="D17" s="6">
+        <f>1/(1+(fraction!B17/'IC50'!C17)^'IC50'!D17)</f>
         <v>0.99553541977937521</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27">
-        <f>1/(1+(fraction!$B17/'IC50'!E16)^'IC50'!F16)</f>
+      <c r="F17" s="6">
+        <f>1/(1+(fraction!$B17/'IC50'!E17)^'IC50'!F17)</f>
         <v>0.9967220719521479</v>
       </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27">
-        <f>1/(1+(fraction!$B17/'IC50'!G16)^'IC50'!H16)</f>
+      <c r="H17" s="6">
+        <f>1/(1+(fraction!$B17/'IC50'!G17)^'IC50'!H17)</f>
         <v>0.95289293939765274</v>
       </c>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27">
-        <f>1/(1+(fraction!$B17/'IC50'!I16)^'IC50'!J16)</f>
+      <c r="J17" s="6">
+        <f>1/(1+(fraction!$B17/'IC50'!I17)^'IC50'!J17)</f>
         <v>0.99774129009956536</v>
       </c>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8" t="s">
+      <c r="R17" t="s">
         <v>53</v>
       </c>
-      <c r="S17" s="38">
-        <v>419</v>
-      </c>
-      <c r="T17" s="40">
-        <v>439</v>
-      </c>
+      <c r="S17" s="33"/>
+      <c r="T17" s="34"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18">
         <v>3359.8367734088279</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="27">
-        <f>1/(1+(fraction!B18/'IC50'!C17)^'IC50'!D17)</f>
+      <c r="D18" s="6">
+        <f>1/(1+(fraction!B18/'IC50'!C18)^'IC50'!D18)</f>
         <v>0.95085071977942803</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27">
-        <f>1/(1+(fraction!$B18/'IC50'!E17)^'IC50'!F17)</f>
+      <c r="F18" s="6">
+        <f>1/(1+(fraction!$B18/'IC50'!E18)^'IC50'!F18)</f>
         <v>0.97359320937923888</v>
       </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27">
-        <f>1/(1+(fraction!$B18/'IC50'!G17)^'IC50'!H17)</f>
+      <c r="H18" s="6">
+        <f>1/(1+(fraction!$B18/'IC50'!G18)^'IC50'!H18)</f>
         <v>0.58180920386723278</v>
       </c>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27">
-        <f>1/(1+(fraction!$B18/'IC50'!I17)^'IC50'!J17)</f>
+      <c r="J18" s="6">
+        <f>1/(1+(fraction!$B18/'IC50'!I18)^'IC50'!J18)</f>
         <v>0.97662544282195318</v>
       </c>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8" t="s">
+      <c r="R18" t="s">
         <v>53</v>
       </c>
-      <c r="S18" s="38">
-        <v>411</v>
-      </c>
-      <c r="T18" s="40">
-        <v>413</v>
-      </c>
+      <c r="S18" s="33"/>
+      <c r="T18" s="34"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="10">
-        <v>2630</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="27">
-        <f>1/(1+(fraction!B19/'IC50'!C18)^'IC50'!D18)</f>
-        <v>0.9642808637783512</v>
-      </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27">
-        <f>1/(1+(fraction!$B19/'IC50'!E18)^'IC50'!F18)</f>
-        <v>0.99923157224745029</v>
-      </c>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27">
-        <f>1/(1+(fraction!$B19/'IC50'!G18)^'IC50'!H18)</f>
-        <v>0.23166812737364886</v>
-      </c>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27">
-        <f>1/(1+(fraction!$B19/'IC50'!I18)^'IC50'!J18)</f>
-        <v>7.7192982456140355E-2</v>
-      </c>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27">
-        <f>1/(1+(fraction!$B19/'IC50'!K18)^'IC50'!L18)</f>
-        <v>0.99160381806592823</v>
-      </c>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8" t="s">
+      <c r="A19" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="7">
+        <v>100</v>
+      </c>
+      <c r="D19" s="6">
+        <f>1/(1+(fraction!B19/'IC50'!C19)^'IC50'!D19)</f>
+        <v>0.99859353023909991</v>
+      </c>
+      <c r="F19" s="6">
+        <f>1/(1+(fraction!$B19/'IC50'!E19)^'IC50'!F19)</f>
+        <v>0.9999997832059152</v>
+      </c>
+      <c r="H19" s="6">
+        <f>1/(1+(fraction!$B19/'IC50'!G19)^'IC50'!H19)</f>
+        <v>0.88801791713325873</v>
+      </c>
+      <c r="J19" s="6">
+        <f>1/(1+(fraction!$B19/'IC50'!I19)^'IC50'!J19)</f>
+        <v>0.6875</v>
+      </c>
+      <c r="L19" s="6">
+        <f>1/(1+(fraction!$B19/'IC50'!K19)^'IC50'!L19)</f>
+        <v>0.99964499671571461</v>
+      </c>
+      <c r="R19" t="s">
         <v>53</v>
       </c>
-      <c r="S19" s="42">
-        <v>464</v>
-      </c>
-      <c r="T19" s="43">
-        <v>435</v>
-      </c>
+      <c r="S19" s="35"/>
+      <c r="T19" s="36"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="7">
         <v>3.02</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="27">
-        <f>1/(1+(fraction!B20/'IC50'!C19)^'IC50'!D19)</f>
+      <c r="D20" s="6">
+        <f>1/(1+(fraction!B20/'IC50'!C20)^'IC50'!D20)</f>
         <v>0.99984902279755761</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27">
-        <f>1/(1+(fraction!$B20/'IC50'!E19)^'IC50'!F19)</f>
+      <c r="F20" s="6">
+        <f>1/(1+(fraction!$B20/'IC50'!E20)^'IC50'!F20)</f>
         <v>0.99998980110500368</v>
       </c>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27">
-        <f>1/(1+(fraction!$B20/'IC50'!G19)^'IC50'!H19)</f>
+      <c r="H20" s="6">
+        <f>1/(1+(fraction!$B20/'IC50'!G20)^'IC50'!H20)</f>
         <v>0.98658331293675527</v>
       </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27">
-        <f>1/(1+(fraction!$B20/'IC50'!I19)^'IC50'!J19)</f>
+      <c r="J20" s="6">
+        <f>1/(1+(fraction!$B20/'IC50'!I20)^'IC50'!J20)</f>
         <v>0.99748965104487031</v>
       </c>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8" t="s">
+      <c r="R20" t="s">
         <v>53</v>
       </c>
-      <c r="S20" s="38">
-        <v>420</v>
-      </c>
-      <c r="T20" s="38">
-        <v>440</v>
-      </c>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>1000</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="27">
-        <f>1/(1+(fraction!B21/'IC50'!C20)^'IC50'!D20)</f>
+      <c r="D21" s="6">
+        <f>1/(1+(fraction!B21/'IC50'!C21)^'IC50'!D21)</f>
         <v>0.5987158908507223</v>
       </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27">
-        <f>1/(1+(fraction!$B21/'IC50'!E20)^'IC50'!F20)</f>
+      <c r="F21" s="6">
+        <f>1/(1+(fraction!$B21/'IC50'!E21)^'IC50'!F21)</f>
         <v>0.99998143890406599</v>
       </c>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27">
-        <f>1/(1+(fraction!$B21/'IC50'!G20)^'IC50'!H20)</f>
+      <c r="H21" s="6">
+        <f>1/(1+(fraction!$B21/'IC50'!G21)^'IC50'!H21)</f>
         <v>0.90991495147343426</v>
       </c>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27">
-        <f>1/(1+(fraction!$B21/'IC50'!I20)^'IC50'!J20)</f>
+      <c r="J21" s="6">
+        <f>1/(1+(fraction!$B21/'IC50'!I21)^'IC50'!J21)</f>
         <v>0.86149572165313149</v>
       </c>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27">
-        <f>1/(1+(fraction!$B21/'IC50'!K20)^'IC50'!L20)</f>
+      <c r="L21" s="6">
+        <f>1/(1+(fraction!$B21/'IC50'!K21)^'IC50'!L21)</f>
         <v>0.9375</v>
       </c>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27">
-        <f>1/(1+(fraction!$B21/'IC50'!O20)^'IC50'!P20)</f>
+      <c r="P21" s="6">
+        <f>1/(1+(fraction!$B21/'IC50'!O21)^'IC50'!P21)</f>
         <v>0.99902379976180711</v>
       </c>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8" t="s">
+      <c r="R21" t="s">
         <v>51</v>
       </c>
-      <c r="S21" s="38">
-        <v>503</v>
-      </c>
-      <c r="T21" s="40">
-        <v>544</v>
-      </c>
+      <c r="S21" s="33"/>
+      <c r="T21" s="34"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="27">
-        <f>1/(1+(fraction!B22/'IC50'!C21)^'IC50'!D21)</f>
+      <c r="D22" s="6">
+        <f>1/(1+(fraction!B22/'IC50'!C22)^'IC50'!D22)</f>
         <v>0.99502487562189068</v>
       </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27">
-        <f>1/(1+(fraction!$B22/'IC50'!E21)^'IC50'!F21)</f>
-        <v>1</v>
-      </c>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27">
-        <f>1/(1+(fraction!$B22/'IC50'!G21)^'IC50'!H21)</f>
+      <c r="F22" s="6">
+        <f>1/(1+(fraction!$B22/'IC50'!E22)^'IC50'!F22)</f>
+        <v>1</v>
+      </c>
+      <c r="H22" s="6">
+        <f>1/(1+(fraction!$B22/'IC50'!G22)^'IC50'!H22)</f>
         <v>0.99836986609592537</v>
       </c>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27">
-        <f>1/(1+(fraction!$B22/'IC50'!I21)^'IC50'!J21)</f>
+      <c r="J22" s="6">
+        <f>1/(1+(fraction!$B22/'IC50'!I22)^'IC50'!J22)</f>
         <v>0.99999999125151684</v>
       </c>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27">
-        <f>1/(1+(fraction!$B22/'IC50'!K21)^'IC50'!L21)</f>
+      <c r="L22" s="6">
+        <f>1/(1+(fraction!$B22/'IC50'!K22)^'IC50'!L22)</f>
         <v>0.99999050009024915</v>
       </c>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8" t="s">
+      <c r="R22" t="s">
         <v>51</v>
       </c>
-      <c r="S22" s="38">
-        <v>421</v>
-      </c>
-      <c r="T22" s="40">
-        <v>442</v>
-      </c>
+      <c r="S22" s="33"/>
+      <c r="T22" s="34"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23">
         <v>650</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="27">
-        <f>1/(1+(fraction!B23/'IC50'!C22)^'IC50'!D22)</f>
+      <c r="D23" s="6">
+        <f>1/(1+(fraction!B23/'IC50'!C23)^'IC50'!D23)</f>
         <v>0.69767441860465118</v>
       </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27">
-        <f>1/(1+(fraction!$B23/'IC50'!E22)^'IC50'!F22)</f>
+      <c r="F23" s="6">
+        <f>1/(1+(fraction!$B23/'IC50'!E23)^'IC50'!F23)</f>
         <v>0.99969303724853464</v>
       </c>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27">
-        <f>1/(1+(fraction!$B23/'IC50'!G22)^'IC50'!H22)</f>
+      <c r="H23" s="6">
+        <f>1/(1+(fraction!$B23/'IC50'!G23)^'IC50'!H23)</f>
         <v>0.76375804425488547</v>
       </c>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27">
-        <f>1/(1+(fraction!$B23/'IC50'!I22)^'IC50'!J22)</f>
-        <v>1</v>
-      </c>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27">
-        <f>1/(1+(fraction!$B23/'IC50'!K22)^'IC50'!L22)</f>
+      <c r="J23" s="6">
+        <f>1/(1+(fraction!$B23/'IC50'!I23)^'IC50'!J23)</f>
+        <v>1</v>
+      </c>
+      <c r="L23" s="6">
+        <f>1/(1+(fraction!$B23/'IC50'!K23)^'IC50'!L23)</f>
         <v>0.99487288916617678</v>
       </c>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27">
-        <f>1/(1+(fraction!$B23/'IC50'!M22)^'IC50'!N22)</f>
+      <c r="N23" s="6">
+        <f>1/(1+(fraction!$B23/'IC50'!M23)^'IC50'!N23)</f>
         <v>0.98795330269219195</v>
       </c>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27">
-        <f>1/(1+(fraction!$B23/'IC50'!O22)^'IC50'!P22)</f>
+      <c r="P23" s="6">
+        <f>1/(1+(fraction!$B23/'IC50'!O23)^'IC50'!P23)</f>
         <v>0.89878274435282002</v>
       </c>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8" t="s">
+      <c r="R23" t="s">
         <v>52</v>
       </c>
-      <c r="S23" s="38">
-        <v>462</v>
-      </c>
-      <c r="T23" s="40">
-        <v>503</v>
-      </c>
+      <c r="S23" s="33"/>
+      <c r="T23" s="34"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="7">
         <v>3288.6</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="27">
-        <f>1/(1+(fraction!B24/'IC50'!C23)^'IC50'!D23)</f>
+      <c r="D24" s="6">
+        <f>1/(1+(fraction!B24/'IC50'!C24)^'IC50'!D24)</f>
         <v>0.82018306486007675</v>
       </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27">
-        <f>1/(1+(fraction!$B24/'IC50'!E23)^'IC50'!F23)</f>
+      <c r="F24" s="6">
+        <f>1/(1+(fraction!$B24/'IC50'!E24)^'IC50'!F24)</f>
         <v>0.9763811226918645</v>
       </c>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27">
-        <f>1/(1+(fraction!$B24/'IC50'!G23)^'IC50'!H23)</f>
+      <c r="H24" s="6">
+        <f>1/(1+(fraction!$B24/'IC50'!G24)^'IC50'!H24)</f>
         <v>0.68717307402332839</v>
       </c>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27">
-        <f>1/(1+(fraction!$B24/'IC50'!I23)^'IC50'!J23)</f>
+      <c r="J24" s="6">
+        <f>1/(1+(fraction!$B24/'IC50'!I24)^'IC50'!J24)</f>
         <v>0.96094774094044721</v>
       </c>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27">
-        <f>1/(1+(fraction!$B24/'IC50'!K23)^'IC50'!L23)</f>
+      <c r="L24" s="6">
+        <f>1/(1+(fraction!$B24/'IC50'!K24)^'IC50'!L24)</f>
         <v>0.99055783048885326</v>
       </c>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27">
-        <f>1/(1+(fraction!$B24/'IC50'!O23)^'IC50'!P23)</f>
+      <c r="P24" s="6">
+        <f>1/(1+(fraction!$B24/'IC50'!O24)^'IC50'!P24)</f>
         <v>0.99990904989900431</v>
       </c>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8" t="s">
+      <c r="R24" t="s">
         <v>53</v>
       </c>
-      <c r="S24" s="38">
-        <v>434</v>
-      </c>
-      <c r="T24" s="40"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="34"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="7">
         <v>17.16</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="27">
-        <f>1/(1+(fraction!B25/'IC50'!C24)^'IC50'!D24)</f>
+      <c r="C25" s="25"/>
+      <c r="D25" s="6">
+        <f>1/(1+(fraction!B25/'IC50'!C25)^'IC50'!D25)</f>
         <v>0.96334586466165406</v>
       </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27">
-        <f>1/(1+(fraction!$B25/'IC50'!E24)^'IC50'!F24)</f>
-        <v>1</v>
-      </c>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27">
-        <f>1/(1+(fraction!$B25/'IC50'!G24)^'IC50'!H24)</f>
+      <c r="F25" s="6">
+        <f>1/(1+(fraction!$B25/'IC50'!E25)^'IC50'!F25)</f>
+        <v>1</v>
+      </c>
+      <c r="H25" s="6">
+        <f>1/(1+(fraction!$B25/'IC50'!G25)^'IC50'!H25)</f>
         <v>0.99999906102574954</v>
       </c>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27">
-        <f>1/(1+(fraction!$B25/'IC50'!I24)^'IC50'!J24)</f>
-        <v>1</v>
-      </c>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27">
-        <f>1/(1+(fraction!$B25/'IC50'!K24)^'IC50'!L24)</f>
+      <c r="J25" s="6">
+        <f>1/(1+(fraction!$B25/'IC50'!I25)^'IC50'!J25)</f>
+        <v>1</v>
+      </c>
+      <c r="L25" s="6">
+        <f>1/(1+(fraction!$B25/'IC50'!K25)^'IC50'!L25)</f>
         <v>0.99975829678675565</v>
       </c>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8" t="s">
+      <c r="R25" t="s">
         <v>51</v>
       </c>
-      <c r="S25" s="38">
-        <v>425</v>
-      </c>
-      <c r="T25" s="40">
-        <v>450</v>
-      </c>
+      <c r="S25" s="33"/>
+      <c r="T25" s="34"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="8">
         <v>11280</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="27">
-        <f>1/(1+(fraction!B26/'IC50'!C25)^'IC50'!D25)</f>
+      <c r="C26" s="25"/>
+      <c r="D26" s="6">
+        <f>1/(1+(fraction!B26/'IC50'!C26)^'IC50'!D26)</f>
         <v>0.71208615644230056</v>
       </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27">
-        <f>1/(1+(fraction!$B26/'IC50'!E25)^'IC50'!F25)</f>
+      <c r="F26" s="6">
+        <f>1/(1+(fraction!$B26/'IC50'!E26)^'IC50'!F26)</f>
         <v>0.99465726952370126</v>
       </c>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27">
-        <f>1/(1+(fraction!$B26/'IC50'!I25)^'IC50'!J25)</f>
+      <c r="J26" s="6">
+        <f>1/(1+(fraction!$B26/'IC50'!I26)^'IC50'!J26)</f>
         <v>0.94486264541988474</v>
       </c>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27">
-        <f>1/(1+(fraction!$B26/'IC50'!K25)^'IC50'!L25)</f>
+      <c r="L26" s="6">
+        <f>1/(1+(fraction!$B26/'IC50'!K26)^'IC50'!L26)</f>
         <v>0.98984954286948379</v>
       </c>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27">
-        <f>1/(1+(fraction!$B26/'IC50'!M25)^'IC50'!N25)</f>
+      <c r="N26" s="6">
+        <f>1/(1+(fraction!$B26/'IC50'!M26)^'IC50'!N26)</f>
         <v>0.99879484479673897</v>
       </c>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27">
-        <f>1/(1+(fraction!$B26/'IC50'!O25)^'IC50'!P25)</f>
+      <c r="P26" s="6">
+        <f>1/(1+(fraction!$B26/'IC50'!O26)^'IC50'!P26)</f>
         <v>0.99690380104492438</v>
       </c>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8" t="s">
+      <c r="R26" t="s">
         <v>52</v>
       </c>
-      <c r="S26" s="38">
-        <v>478</v>
-      </c>
-      <c r="T26" s="40">
-        <v>512</v>
-      </c>
+      <c r="S26" s="33"/>
+      <c r="T26" s="34"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27">
         <v>7.0431333193669472</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="27">
-        <f>1/(1+(fraction!B27/'IC50'!C26)^'IC50'!D26)</f>
+      <c r="C27" s="25"/>
+      <c r="D27" s="6">
+        <f>1/(1+(fraction!B27/'IC50'!C27)^'IC50'!D27)</f>
         <v>0.99461139947120181</v>
       </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8" t="s">
+      <c r="R27" t="s">
         <v>53</v>
       </c>
-      <c r="S27" s="38">
-        <v>421</v>
-      </c>
-      <c r="T27" s="40">
-        <v>442</v>
-      </c>
+      <c r="S27" s="33"/>
+      <c r="T27" s="34"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="7">
         <v>100</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="27">
-        <f>1/(1+(fraction!B28/'IC50'!C27)^'IC50'!D27)</f>
+      <c r="C28" s="25"/>
+      <c r="D28" s="6">
+        <f>1/(1+(fraction!B28/'IC50'!C28)^'IC50'!D28)</f>
         <v>0.69696969696969702</v>
       </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27">
-        <f>1/(1+(fraction!$B28/'IC50'!E27)^'IC50'!F27)</f>
+      <c r="F28" s="6">
+        <f>1/(1+(fraction!$B28/'IC50'!E28)^'IC50'!F28)</f>
         <v>0.97979917557591889</v>
       </c>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27">
-        <f>1/(1+(fraction!$B28/'IC50'!G27)^'IC50'!H27)</f>
+      <c r="H28" s="6">
+        <f>1/(1+(fraction!$B28/'IC50'!G28)^'IC50'!H28)</f>
         <v>0.96010026625891964</v>
       </c>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27">
-        <f>1/(1+(fraction!$B28/'IC50'!I27)^'IC50'!J27)</f>
+      <c r="J28" s="6">
+        <f>1/(1+(fraction!$B28/'IC50'!I28)^'IC50'!J28)</f>
         <v>0.56967505188990908</v>
       </c>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27">
-        <f>1/(1+(fraction!$B28/'IC50'!K27)^'IC50'!L27)</f>
+      <c r="L28" s="6">
+        <f>1/(1+(fraction!$B28/'IC50'!K28)^'IC50'!L28)</f>
         <v>0.95238095238095233</v>
       </c>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27">
-        <f>1/(1+(fraction!$B28/'IC50'!O27)^'IC50'!P27)</f>
+      <c r="P28" s="6">
+        <f>1/(1+(fraction!$B28/'IC50'!O28)^'IC50'!P28)</f>
         <v>0.91172797645904158</v>
       </c>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8" t="s">
+      <c r="R28" t="s">
         <v>51</v>
       </c>
-      <c r="S28" s="38">
-        <v>461</v>
-      </c>
-      <c r="T28" s="40">
-        <v>526</v>
-      </c>
+      <c r="S28" s="33"/>
+      <c r="T28" s="34"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29">
         <v>198.87621419322753</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="27">
-        <f>1/(1+(fraction!B29/'IC50'!C28)^'IC50'!D28)</f>
+      <c r="C29" s="25"/>
+      <c r="D29" s="6">
+        <f>1/(1+(fraction!B29/'IC50'!C29)^'IC50'!D29)</f>
         <v>0.66791766064520963</v>
       </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8" t="s">
+      <c r="R29" t="s">
         <v>52</v>
       </c>
-      <c r="S29" s="38">
-        <v>489</v>
-      </c>
-      <c r="T29" s="40">
-        <v>527</v>
-      </c>
+      <c r="S29" s="33"/>
+      <c r="T29" s="34"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="7">
         <v>25.795999999999999</v>
       </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="27">
-        <f>1/(1+(fraction!B30/'IC50'!C29)^'IC50'!D29)</f>
+      <c r="C30" s="25"/>
+      <c r="D30" s="6">
+        <f>1/(1+(fraction!B30/'IC50'!C30)^'IC50'!D30)</f>
         <v>0.99612069810209503</v>
       </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27">
-        <f>1/(1+(fraction!$B30/'IC50'!E29)^'IC50'!F29)</f>
-        <v>1</v>
-      </c>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27">
-        <f>1/(1+(fraction!$B30/'IC50'!G29)^'IC50'!H29)</f>
+      <c r="F30" s="6">
+        <f>1/(1+(fraction!$B30/'IC50'!E30)^'IC50'!F30)</f>
+        <v>1</v>
+      </c>
+      <c r="H30" s="6">
+        <f>1/(1+(fraction!$B30/'IC50'!G30)^'IC50'!H30)</f>
         <v>0.98747279466599525</v>
       </c>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27">
-        <f>1/(1+(fraction!$B30/'IC50'!I29)^'IC50'!J29)</f>
+      <c r="J30" s="6">
+        <f>1/(1+(fraction!$B30/'IC50'!I30)^'IC50'!J30)</f>
         <v>0.75552220061403064</v>
       </c>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27">
-        <f>1/(1+(fraction!$B30/'IC50'!K29)^'IC50'!L29)</f>
+      <c r="L30" s="6">
+        <f>1/(1+(fraction!$B30/'IC50'!K30)^'IC50'!L30)</f>
         <v>0.99858737846258772</v>
       </c>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27">
-        <f>1/(1+(fraction!$B30/'IC50'!M29)^'IC50'!N29)</f>
+      <c r="N30" s="6">
+        <f>1/(1+(fraction!$B30/'IC50'!M30)^'IC50'!N30)</f>
         <v>0.99279757425116633</v>
       </c>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27">
-        <f>1/(1+(fraction!$B30/'IC50'!O29)^'IC50'!P29)</f>
+      <c r="P30" s="6">
+        <f>1/(1+(fraction!$B30/'IC50'!O30)^'IC50'!P30)</f>
         <v>0.99333351555339378</v>
       </c>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8" t="s">
+      <c r="R30" t="s">
         <v>53</v>
       </c>
-      <c r="S30" s="38">
-        <v>420</v>
-      </c>
-      <c r="T30" s="40">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="34"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35">
+        <f>'IC50'!B35</f>
+        <v>2946.5419470220563</v>
+      </c>
+      <c r="D35" s="6">
+        <f>1/(1+(fraction!$B35/'IC50'!C35)^'IC50'!D35)</f>
+        <v>0.33734079603242739</v>
+      </c>
+      <c r="F35" s="6">
+        <f>1/(1+(fraction!$B35/'IC50'!E35)^'IC50'!F35)</f>
+        <v>0.98214852066624592</v>
+      </c>
+      <c r="H35" s="6">
+        <f>1/(1+(fraction!$B35/'IC50'!G35)^'IC50'!H35)</f>
+        <v>0.4496726808906884</v>
+      </c>
+      <c r="J35" s="6">
+        <f>1/(1+(fraction!$B35/'IC50'!I35)^'IC50'!J35)</f>
+        <v>0.99999999999999933</v>
+      </c>
+      <c r="L35" s="6">
+        <f>1/(1+(fraction!$B35/'IC50'!K35)^'IC50'!L35)</f>
+        <v>0.97067971345114412</v>
+      </c>
+      <c r="N35" s="6">
+        <f>1/(1+(fraction!$B35/'IC50'!M35)^'IC50'!N35)</f>
+        <v>0.97816744838626202</v>
+      </c>
+      <c r="P35" s="6">
+        <f>1/(1+(fraction!$B35/'IC50'!O35)^'IC50'!P35)</f>
+        <v>0.55451551299111113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="51">
+        <f>'IC50'!B36*10</f>
+        <v>1535.0649524812775</v>
+      </c>
+      <c r="D36" s="6">
+        <f>1/(1+(fraction!$B36/'IC50'!C36)^'IC50'!D36)</f>
+        <v>0.49422336045022519</v>
+      </c>
+      <c r="F36" s="6">
+        <f>1/(1+(fraction!$B36/'IC50'!E36)^'IC50'!F36)</f>
+        <v>0.99666868996949776</v>
+      </c>
+      <c r="H36" s="6">
+        <f>1/(1+(fraction!$B36/'IC50'!G36)^'IC50'!H36)</f>
+        <v>0.62926488102184008</v>
+      </c>
+      <c r="J36" s="6">
+        <f>1/(1+(fraction!$B36/'IC50'!I36)^'IC50'!J36)</f>
+        <v>0.99712968528212231</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2240,13 +1925,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED62F087-9FE5-4C8B-92F3-BA311049ACFA}">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2301,1118 +1986,1205 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B3" s="7">
         <v>0.26</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C3" s="8">
         <v>240</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D3" s="8">
         <v>1.96</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E3">
         <v>2300</v>
       </c>
-      <c r="F2" s="8">
-        <v>1</v>
-      </c>
-      <c r="I2" s="8">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="I3">
         <v>1043.9000000000001</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J3">
         <v>2.0960000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>121.96501473193264</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C4" s="8">
         <v>380</v>
       </c>
-      <c r="D3" s="9">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>18400</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F4">
         <v>3.8</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G4">
         <v>3690</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H4">
         <v>1.4</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I4">
         <v>12700</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J4">
         <v>4.0999999999999996</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K4">
         <v>1400</v>
       </c>
-      <c r="L3" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B5" s="7">
         <v>33</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C5">
         <v>65</v>
       </c>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
-      <c r="E4" s="11">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9">
         <v>517</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F5">
         <v>1.1399999999999999</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G5">
         <v>1814</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H5">
         <v>1.4</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I5" s="9">
         <v>1400</v>
       </c>
-      <c r="J4" s="8">
-        <v>1</v>
-      </c>
-      <c r="K4" s="8">
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
         <v>6200</v>
       </c>
-      <c r="L4" s="8">
-        <v>1</v>
-      </c>
-      <c r="O4" s="8">
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="O5">
         <v>8594</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P5">
         <v>3.5</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>78.4258021453834</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C6" s="8">
         <v>650</v>
       </c>
-      <c r="D5" s="9">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>21200</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F6">
         <v>2.5</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G6">
         <v>673</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H6">
         <v>1.8</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I6">
         <v>6350</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J6">
         <v>2</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K6">
         <v>10500</v>
       </c>
-      <c r="L5" s="8">
-        <v>1</v>
-      </c>
-      <c r="M5" s="8">
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
         <v>9270</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N6">
         <v>0.7</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O6">
         <v>17600000</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P6">
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>3.1211411761058199</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C7" s="8">
         <v>182.9</v>
       </c>
-      <c r="D6" s="9">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>16800</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G7">
         <v>421</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I7" s="9">
         <v>4050000</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J7">
         <v>5.6</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K7">
         <v>6695</v>
       </c>
-      <c r="L6" s="8">
-        <v>1</v>
-      </c>
-      <c r="M6" s="8">
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
         <v>29498</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N7">
         <v>0.5</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O7">
         <v>219112</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P7">
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>685.51911152600894</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C8" s="10">
         <v>107850</v>
       </c>
-      <c r="D7" s="9">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>835000</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F8">
         <v>4</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G8">
         <v>173000</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H8">
         <v>2.4</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I8">
         <v>118000</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J8">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>153.50649524812775</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C9" s="11">
         <v>1500</v>
       </c>
-      <c r="D8" s="9">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>8210</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F9">
         <v>3.4</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G9">
         <v>2240</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H9">
         <v>1.4</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I9">
         <v>5330</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J9">
         <v>4.7</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>188.03280519107693</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C10">
         <v>21900</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D10" s="8">
         <v>1.1299999999999999</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E10">
         <v>13350</v>
       </c>
-      <c r="F9" s="8">
-        <v>1</v>
-      </c>
-      <c r="G9" s="8">
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
         <v>21862.5</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H10">
         <v>0.7</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I10">
         <v>2095</v>
       </c>
-      <c r="J9" s="8">
-        <v>1</v>
-      </c>
-      <c r="K9" s="8">
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
         <v>63750</v>
       </c>
-      <c r="L9" s="8">
-        <v>1</v>
-      </c>
-      <c r="O9" s="8">
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="O10">
         <v>2800000000</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P10">
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>5290.3912105207601</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C11" s="12">
         <v>42000</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D11">
         <v>0.89</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E11">
         <v>235350</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F11">
         <v>1.0449999999999999</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I11">
         <v>1036700</v>
       </c>
-      <c r="J10" s="8">
-        <v>1</v>
-      </c>
-      <c r="K10" s="8">
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
         <v>81800</v>
       </c>
-      <c r="L10" s="8">
-        <v>1</v>
-      </c>
-      <c r="O10" s="8" t="s">
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
         <v>36</v>
       </c>
-      <c r="P10" s="8" t="s">
+      <c r="P11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>2.6168</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C12" s="13">
         <v>8</v>
       </c>
-      <c r="D11" s="9">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12">
         <v>147900</v>
       </c>
-      <c r="F11" s="8">
-        <v>1</v>
-      </c>
-      <c r="G11" s="8">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
         <v>753160</v>
       </c>
-      <c r="H11" s="8">
-        <v>1</v>
-      </c>
-      <c r="I11" s="8">
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
         <v>26700</v>
       </c>
-      <c r="J11" s="8">
-        <v>1</v>
-      </c>
-      <c r="K11" s="8">
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
         <v>100000</v>
       </c>
-      <c r="L11" s="8">
-        <v>1</v>
-      </c>
-      <c r="O11" s="8">
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="O12">
         <v>18.8</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P12">
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>9.3110948871613886</v>
       </c>
-      <c r="C12" s="17">
-        <v>720</v>
-      </c>
-      <c r="D12" s="9">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="C13" s="44">
+        <v>1620</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13">
         <v>6930</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F13">
         <v>2.6</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G13">
         <v>225000</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H13">
         <v>2.1</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I13">
         <v>16900</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K13" t="s">
         <v>36</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="L13" t="s">
         <v>36</v>
       </c>
-      <c r="M12" s="8" t="s">
+      <c r="M13" t="s">
         <v>36</v>
       </c>
-      <c r="N12" s="8" t="s">
+      <c r="N13" t="s">
         <v>36</v>
       </c>
-      <c r="O12" s="8" t="s">
+      <c r="O13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>20.83583318780153</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C14" s="12">
         <v>307</v>
       </c>
-      <c r="D13" s="14">
-        <v>1</v>
-      </c>
-      <c r="E13" s="14">
+      <c r="D14" s="12">
+        <v>1</v>
+      </c>
+      <c r="E14" s="12">
         <v>22700</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F14" s="12">
         <v>1.24</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14">
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12">
         <v>7600</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J14" s="12">
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B15" s="7">
         <v>140</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C15" s="8">
         <v>235</v>
       </c>
-      <c r="D14" s="9">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
+      <c r="D15" s="8">
+        <v>1</v>
+      </c>
+      <c r="E15">
         <v>8020</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F15">
         <v>0.78</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G15">
         <v>820</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H15">
         <v>0.96</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I15">
         <v>18500</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J15">
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>0.1283318845275169</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C16" s="9">
         <v>5050</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D16" s="8">
         <v>1.22</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E16">
         <v>31250</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F16">
         <v>1.3</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G16">
         <v>937</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H16">
         <v>2.8</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I16">
         <v>730</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J16">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>493.30622950369315</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C17" s="9">
         <v>110000</v>
       </c>
-      <c r="D16" s="9">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
+      <c r="D17" s="8">
+        <v>1</v>
+      </c>
+      <c r="E17">
         <v>150000</v>
       </c>
-      <c r="F16" s="8">
-        <v>1</v>
-      </c>
-      <c r="G16" s="8">
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
         <v>24500</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H17">
         <v>0.77</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I17">
         <v>398000</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J17">
         <v>0.91</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>3359.8367734088279</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C18" s="10">
         <v>65000</v>
       </c>
-      <c r="D17" s="9">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
+      <c r="D18" s="8">
+        <v>1</v>
+      </c>
+      <c r="E18">
         <v>67900</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F18">
         <v>1.2</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G18">
         <v>4690</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H18">
         <v>0.99</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I18">
         <v>164000</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J18">
         <v>0.96</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K18" t="s">
         <v>36</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="L18" t="s">
         <v>36</v>
       </c>
-      <c r="M17" s="8" t="s">
+      <c r="M18" t="s">
         <v>36</v>
       </c>
-      <c r="N17" s="8" t="s">
+      <c r="N18" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="8" t="s">
+      <c r="O18" t="s">
         <v>36</v>
       </c>
-      <c r="P17" s="8" t="s">
+      <c r="P18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19">
         <v>12.971965377551852</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C19" s="9">
         <v>71000</v>
       </c>
-      <c r="D18" s="9">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8">
+      <c r="D19" s="8">
+        <v>1</v>
+      </c>
+      <c r="E19">
         <v>46300</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F19">
         <v>2.5</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G19">
         <v>793</v>
       </c>
-      <c r="H18" s="15">
-        <v>1</v>
-      </c>
-      <c r="I18" s="15">
+      <c r="H19" s="13">
+        <v>1</v>
+      </c>
+      <c r="I19" s="13">
         <v>220</v>
       </c>
-      <c r="J18" s="15">
-        <v>1</v>
-      </c>
-      <c r="K18" s="8">
+      <c r="J19" s="13">
+        <v>1</v>
+      </c>
+      <c r="K19">
         <v>360000</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L19">
         <v>0.97</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B20" s="7">
         <v>3.02</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C20" s="14">
         <v>20000</v>
       </c>
-      <c r="D19" s="16">
-        <v>1</v>
-      </c>
-      <c r="E19" s="16">
+      <c r="D20" s="14">
+        <v>1</v>
+      </c>
+      <c r="E20" s="14">
         <v>11100</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F20" s="14">
         <v>1.4</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G20" s="14">
         <v>358</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H20" s="14">
         <v>0.9</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I20" s="14">
         <v>1200</v>
       </c>
-      <c r="J19" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="J20" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>99.29114779651924</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C21">
         <v>1492</v>
       </c>
-      <c r="D20" s="9">
-        <v>1</v>
-      </c>
-      <c r="E20" s="11">
+      <c r="D21" s="8">
+        <v>1</v>
+      </c>
+      <c r="E21" s="9">
         <v>19000</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F21">
         <v>3.7</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G21">
         <v>6870</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H21">
         <v>1.2</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I21" s="9">
         <v>9310000</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J21">
         <v>0.2</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K21">
         <v>15000</v>
       </c>
-      <c r="L20" s="8">
-        <v>1</v>
-      </c>
-      <c r="M20" s="8" t="s">
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21" t="s">
         <v>36</v>
       </c>
-      <c r="N20" s="8" t="s">
+      <c r="N21" t="s">
         <v>36</v>
       </c>
-      <c r="O20" s="8">
+      <c r="O21">
         <v>1023380</v>
       </c>
-      <c r="P20" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="P21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>0.36683520475151643</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C22" s="8">
         <v>19</v>
       </c>
-      <c r="D21" s="9">
-        <v>1</v>
-      </c>
-      <c r="E21" s="11">
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9">
         <v>4110</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F22">
         <v>5.5</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G22">
         <v>5030</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H22">
         <v>0.59</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I22">
         <v>437</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J22">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K22">
         <v>10000</v>
       </c>
-      <c r="L21" s="8">
-        <v>1</v>
-      </c>
-      <c r="M21" s="8" t="s">
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
         <v>36</v>
       </c>
-      <c r="N21" s="8" t="s">
+      <c r="N22" t="s">
         <v>36</v>
       </c>
-      <c r="O21" s="8" t="s">
+      <c r="O22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>2946.5419470220563</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C23" s="20">
         <v>1500</v>
       </c>
-      <c r="D22" s="9">
-        <v>1</v>
-      </c>
-      <c r="E22" s="8">
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
+      <c r="E23">
         <v>13000</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F23">
         <v>2.7</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G23">
         <v>2360</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H23" s="8">
         <v>0.91</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I23" s="11">
         <v>5100000</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J23" s="8">
         <v>4.7</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K23">
         <v>58665</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L23">
         <v>1.17</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M23">
         <v>39589900</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N23">
         <v>0.4</v>
       </c>
-      <c r="O22" s="8">
+      <c r="O23">
         <v>3487</v>
       </c>
-      <c r="P22" s="8">
+      <c r="P23">
         <v>1.3</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>2514.2693848427548</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C24" s="13">
         <v>15000</v>
       </c>
-      <c r="D23" s="9">
-        <v>1</v>
-      </c>
-      <c r="E23" s="8">
+      <c r="D24" s="8">
+        <v>1</v>
+      </c>
+      <c r="E24">
         <v>155595</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F24">
         <v>0.96499999999999997</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G24">
         <v>7884</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H24">
         <v>0.9</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I24">
         <v>118304</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J24">
         <v>0.89400000000000002</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K24">
         <v>345000</v>
       </c>
-      <c r="L23" s="8">
-        <v>1</v>
-      </c>
-      <c r="O23" s="8">
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="O24">
         <v>36155000</v>
       </c>
-      <c r="P23" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="P24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>30.005617270014096</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C25" s="8">
         <v>451</v>
       </c>
-      <c r="D24" s="9">
-        <v>1</v>
-      </c>
-      <c r="E24" s="11">
+      <c r="D25" s="8">
+        <v>1</v>
+      </c>
+      <c r="E25" s="9">
         <v>9760000</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F25">
         <v>5.5</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G25">
         <v>2930</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H25">
         <v>2.7</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I25" s="9">
         <v>5730000</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J25">
         <v>5.3</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K25">
         <v>70979</v>
       </c>
-      <c r="L24" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+      <c r="L25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>12081.541131620732</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C26" s="13">
         <v>69000</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D26" s="15">
         <v>0.5</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E26">
         <v>2100000</v>
       </c>
-      <c r="F25" s="8">
-        <v>1</v>
-      </c>
-      <c r="I25" s="8">
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="I26">
         <v>193300</v>
       </c>
-      <c r="J25" s="8">
-        <v>1</v>
-      </c>
-      <c r="K25" s="8">
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
         <v>1100000</v>
       </c>
-      <c r="L25" s="8">
-        <v>1</v>
-      </c>
-      <c r="M25" s="8">
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
         <v>3050260</v>
       </c>
-      <c r="N25" s="8">
+      <c r="N26">
         <v>1.2</v>
       </c>
-      <c r="O25" s="8">
+      <c r="O26">
         <v>43143500</v>
       </c>
-      <c r="P25" s="8">
+      <c r="P26">
         <v>0.7</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>7.0431333193669472</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C27">
         <f>1.3*1000</f>
         <v>1300</v>
       </c>
-      <c r="D26" s="9">
-        <v>1</v>
-      </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-    </row>
-    <row r="27" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
+      <c r="D27" s="8">
+        <v>1</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B28" s="7">
         <v>9</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C28" s="8">
         <v>230</v>
       </c>
-      <c r="D27" s="9">
-        <v>1</v>
-      </c>
-      <c r="E27" s="8">
+      <c r="D28" s="8">
+        <v>1</v>
+      </c>
+      <c r="E28">
         <v>1600</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F28">
         <v>1.4</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G28">
         <v>20056</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H28">
         <v>0.6</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I28">
         <v>142</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J28">
         <v>0.8</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K28">
         <v>2000</v>
       </c>
-      <c r="L27" s="8">
-        <v>1</v>
-      </c>
-      <c r="O27" s="8">
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="O28">
         <v>239961</v>
       </c>
-      <c r="P27" s="8">
+      <c r="P28">
         <v>0.3</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>198.87621419322753</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C29">
         <f>0.4*1000</f>
         <v>400</v>
       </c>
-      <c r="D28" s="9">
-        <v>1</v>
-      </c>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="L28" s="8" t="s">
+      <c r="D29" s="8">
+        <v>1</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="L29" t="s">
         <v>36</v>
       </c>
-      <c r="M28" s="8" t="s">
+      <c r="M29" t="s">
         <v>36</v>
       </c>
-      <c r="N28" s="8" t="s">
+      <c r="N29" t="s">
         <v>36</v>
       </c>
-      <c r="O28" s="8" t="s">
+      <c r="O29" t="s">
         <v>36</v>
       </c>
-      <c r="P28" s="8" t="s">
+      <c r="P29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B30" s="7">
         <v>81</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C30" s="8">
         <v>4000</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D30" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E30" s="9">
         <v>2480000</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F30">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G30">
         <v>982</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H30">
         <v>1.2</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I30">
         <v>164</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J30">
         <v>0.61</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K30">
         <v>29880</v>
       </c>
-      <c r="L29" s="8">
+      <c r="L30">
         <v>0.93</v>
       </c>
-      <c r="M29" s="11">
+      <c r="M30" s="9">
         <v>349000000</v>
       </c>
-      <c r="N29" s="8">
+      <c r="N30">
         <v>0.3</v>
       </c>
-      <c r="O29" s="8">
+      <c r="O30">
         <v>13429.2</v>
       </c>
-      <c r="P29" s="8">
+      <c r="P30">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35">
+        <v>2946.5419470220563</v>
+      </c>
+      <c r="C35" s="20">
+        <v>1500</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>13000</v>
+      </c>
+      <c r="F35">
+        <v>2.7</v>
+      </c>
+      <c r="G35">
+        <v>2360</v>
+      </c>
+      <c r="H35" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="I35" s="11">
+        <v>5100000</v>
+      </c>
+      <c r="J35" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="K35">
+        <v>58665</v>
+      </c>
+      <c r="L35">
+        <v>1.17</v>
+      </c>
+      <c r="M35">
+        <v>39589900</v>
+      </c>
+      <c r="N35">
+        <v>0.4</v>
+      </c>
+      <c r="O35">
+        <v>3487</v>
+      </c>
+      <c r="P35">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36">
+        <v>153.50649524812775</v>
+      </c>
+      <c r="C36" s="11">
+        <v>1500</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>8210</v>
+      </c>
+      <c r="F36">
+        <v>3.4</v>
+      </c>
+      <c r="G36">
+        <v>2240</v>
+      </c>
+      <c r="H36">
+        <v>1.4</v>
+      </c>
+      <c r="I36">
+        <v>5330</v>
+      </c>
+      <c r="J36">
+        <v>4.7</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:P1" xr:uid="{935982B0-2A5E-4BCE-8511-BA00F103B6BE}">
-    <sortState ref="A2:P29">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P29">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -3823,13 +3595,13 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13E2453B-FDCB-4FD8-976D-FFA0386AE37D}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="92ab9642-0aab-44de-b012-9f00b4c0dc56"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="92ab9642-0aab-44de-b012-9f00b4c0dc56"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="fd20df89-4048-49a6-a67a-390eaa975cff"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>

--- a/CiPA28.xlsx
+++ b/CiPA28.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upvedues-my.sharepoint.com/personal/mamofe_upv_edu_es/Documents/POSTDOC/Proyectos/SimCardioTest/Simula/7-ecg/Sent/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/finsberg/local/src/reproduce-ecg-upv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{027CD972-A636-4DB0-ACD4-5B1392EE6B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A264A3E9-8FA3-4E4C-937D-72D5EEB2405F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B6A126-D11D-0A4D-90F3-8A62F780037C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-1270" windowWidth="19420" windowHeight="11500" xr2:uid="{2505763F-C0DE-45D9-9152-C347D67BEC19}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{2505763F-C0DE-45D9-9152-C347D67BEC19}"/>
   </bookViews>
   <sheets>
     <sheet name="fraction" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="63">
   <si>
     <t>Sotalol</t>
   </si>
@@ -225,6 +224,12 @@
   </si>
   <si>
     <t>TdP</t>
+  </si>
+  <si>
+    <t>Quinidine-TdP</t>
+  </si>
+  <si>
+    <t>Clozapine-TdP</t>
   </si>
 </sst>
 </file>
@@ -418,7 +423,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -509,20 +514,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -530,7 +524,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="1" builtinId="10"/>
+    <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -546,9 +540,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -586,7 +580,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -692,7 +686,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -834,7 +828,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -844,23 +838,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85AA3245-A2F9-47AC-BC55-B58C081B6EC1}">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A34" sqref="A34"/>
+      <selection pane="bottomRight" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="16" width="11.42578125" style="6"/>
-    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="16" width="11.5" style="6"/>
+    <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B1" s="26" t="s">
         <v>54</v>
       </c>
@@ -903,7 +897,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>58</v>
       </c>
@@ -944,8 +938,8 @@
       <c r="S2" s="42"/>
       <c r="T2" s="43"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B3">
@@ -969,8 +963,8 @@
       <c r="S3" s="33"/>
       <c r="T3" s="34"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B4">
@@ -1002,8 +996,8 @@
       <c r="S4" s="33"/>
       <c r="T4" s="34"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="7">
@@ -1039,8 +1033,8 @@
       <c r="S5" s="33"/>
       <c r="T5" s="33"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B6">
@@ -1080,8 +1074,8 @@
       <c r="S6" s="33"/>
       <c r="T6" s="34"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
+    <row r="7" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="8">
@@ -1121,8 +1115,8 @@
       <c r="S7" s="33"/>
       <c r="T7" s="34"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+    <row r="8" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B8">
@@ -1150,8 +1144,8 @@
       <c r="S8" s="33"/>
       <c r="T8" s="33"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+    <row r="9" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="8">
@@ -1179,8 +1173,8 @@
       <c r="S9" s="33"/>
       <c r="T9" s="34"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
         <v>22</v>
       </c>
       <c r="B10">
@@ -1216,8 +1210,8 @@
       <c r="S10" s="33"/>
       <c r="T10" s="34"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+    <row r="11" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
         <v>23</v>
       </c>
       <c r="B11">
@@ -1245,8 +1239,8 @@
       <c r="S11" s="33"/>
       <c r="T11" s="34"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+    <row r="12" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="8">
@@ -1282,8 +1276,8 @@
       <c r="S12" s="33"/>
       <c r="T12" s="34"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B13">
@@ -1311,8 +1305,8 @@
       <c r="S13" s="33"/>
       <c r="T13" s="34"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="50" t="s">
+    <row r="14" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="46" t="s">
         <v>26</v>
       </c>
       <c r="B14">
@@ -1336,8 +1330,8 @@
       <c r="S14" s="33"/>
       <c r="T14" s="34"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B15" s="7">
@@ -1365,8 +1359,8 @@
       <c r="S15" s="33"/>
       <c r="T15" s="33"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
+    <row r="16" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="7">
@@ -1394,8 +1388,8 @@
       <c r="S16" s="33"/>
       <c r="T16" s="34"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="47" t="s">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
         <v>55</v>
       </c>
       <c r="B17">
@@ -1423,8 +1417,8 @@
       <c r="S17" s="33"/>
       <c r="T17" s="34"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="47" t="s">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
         <v>28</v>
       </c>
       <c r="B18">
@@ -1452,8 +1446,8 @@
       <c r="S18" s="33"/>
       <c r="T18" s="34"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="50" t="s">
+    <row r="19" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="7">
@@ -1485,8 +1479,8 @@
       <c r="S19" s="35"/>
       <c r="T19" s="36"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="47" t="s">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="7">
@@ -1514,8 +1508,8 @@
       <c r="S20" s="33"/>
       <c r="T20" s="33"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
+    <row r="21" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="18" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="8">
@@ -1551,8 +1545,8 @@
       <c r="S21" s="33"/>
       <c r="T21" s="34"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="48" t="s">
+    <row r="22" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
       <c r="B22">
@@ -1584,8 +1578,8 @@
       <c r="S22" s="33"/>
       <c r="T22" s="34"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="48" t="s">
+    <row r="23" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="18" t="s">
         <v>31</v>
       </c>
       <c r="B23">
@@ -1625,8 +1619,8 @@
       <c r="S23" s="33"/>
       <c r="T23" s="34"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="46" t="s">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="7">
@@ -1662,8 +1656,8 @@
       <c r="S24" s="33"/>
       <c r="T24" s="34"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="48" t="s">
+    <row r="25" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="7">
@@ -1696,8 +1690,8 @@
       <c r="S25" s="33"/>
       <c r="T25" s="34"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="46" t="s">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="8">
@@ -1734,8 +1728,8 @@
       <c r="S26" s="33"/>
       <c r="T26" s="34"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="47" t="s">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
         <v>34</v>
       </c>
       <c r="B27">
@@ -1752,8 +1746,8 @@
       <c r="S27" s="33"/>
       <c r="T27" s="34"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="48" t="s">
+    <row r="28" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="18" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="7">
@@ -1790,8 +1784,8 @@
       <c r="S28" s="33"/>
       <c r="T28" s="34"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="48" t="s">
+    <row r="29" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="18" t="s">
         <v>35</v>
       </c>
       <c r="B29">
@@ -1808,8 +1802,8 @@
       <c r="S29" s="33"/>
       <c r="T29" s="34"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="49" t="s">
+    <row r="30" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="23" t="s">
         <v>42</v>
       </c>
       <c r="B30" s="7">
@@ -1850,14 +1844,14 @@
       <c r="S30" s="33"/>
       <c r="T30" s="34"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="52" t="s">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="47" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="53" t="s">
-        <v>31</v>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="48" t="s">
+        <v>61</v>
       </c>
       <c r="B35">
         <f>'IC50'!B35</f>
@@ -1892,11 +1886,11 @@
         <v>0.55451551299111113</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" s="51">
+    <row r="36" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="7">
         <f>'IC50'!B36*10</f>
         <v>1535.0649524812775</v>
       </c>
@@ -1927,19 +1921,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED62F087-9FE5-4C8B-92F3-BA311049ACFA}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1986,7 +1980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>39</v>
       </c>
@@ -2012,7 +2006,7 @@
         <v>2.0960000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>17</v>
       </c>
@@ -2050,7 +2044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>37</v>
       </c>
@@ -2094,7 +2088,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>18</v>
       </c>
@@ -2144,7 +2138,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>19</v>
       </c>
@@ -2194,7 +2188,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
         <v>20</v>
       </c>
@@ -2226,7 +2220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
         <v>21</v>
       </c>
@@ -2258,7 +2252,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>22</v>
       </c>
@@ -2302,7 +2296,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>23</v>
       </c>
@@ -2340,7 +2334,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
         <v>24</v>
       </c>
@@ -2384,7 +2378,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
         <v>25</v>
       </c>
@@ -2431,7 +2425,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
         <v>26</v>
       </c>
@@ -2459,7 +2453,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>38</v>
       </c>
@@ -2491,7 +2485,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
         <v>27</v>
       </c>
@@ -2523,7 +2517,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
         <v>55</v>
       </c>
@@ -2555,7 +2549,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
         <v>28</v>
       </c>
@@ -2605,7 +2599,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
         <v>1</v>
       </c>
@@ -2643,7 +2637,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
         <v>41</v>
       </c>
@@ -2675,7 +2669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
         <v>29</v>
       </c>
@@ -2725,7 +2719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
@@ -2772,7 +2766,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
         <v>31</v>
       </c>
@@ -2822,7 +2816,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
         <v>32</v>
       </c>
@@ -2866,7 +2860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
         <v>33</v>
       </c>
@@ -2904,7 +2898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
         <v>0</v>
       </c>
@@ -2948,7 +2942,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
         <v>34</v>
       </c>
@@ -2967,7 +2961,7 @@
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
         <v>40</v>
       </c>
@@ -3011,7 +3005,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
         <v>35</v>
       </c>
@@ -3045,7 +3039,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
         <v>42</v>
       </c>
@@ -3095,14 +3089,14 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="45" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B35">
         <v>2946.5419470220563</v>
@@ -3150,9 +3144,9 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="B36">
         <v>153.50649524812775</v>
@@ -3199,7 +3193,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3213,59 +3207,59 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>28.3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>22.9</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>39.9</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>0.33200000000000002</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>2.62</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>1.4088000000000001</v>
       </c>
@@ -3274,32 +3268,32 @@
         <v>1.639</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>1.3951</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>2.5186999999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>1.589</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>1.2257</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>1.639</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>5.4843999999999997E-2</v>
       </c>
@@ -3310,6 +3304,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="fd20df89-4048-49a6-a67a-390eaa975cff" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006E43017B494BB149B6A2335A5C790C9A" ma:contentTypeVersion="17" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="506d71b03f66a101d5518de95d44f535">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="fd20df89-4048-49a6-a67a-390eaa975cff" xmlns:ns4="92ab9642-0aab-44de-b012-9f00b4c0dc56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b1061fe56412549e533d1e88f97579ff" ns3:_="" ns4:_="">
     <xsd:import namespace="fd20df89-4048-49a6-a67a-390eaa975cff"/>
@@ -3556,38 +3567,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="fd20df89-4048-49a6-a67a-390eaa975cff" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{410EA7CD-8428-4838-8AA2-CE3DCE6A747C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66B0185D-0079-420A-8018-4117B6CFA962}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="fd20df89-4048-49a6-a67a-390eaa975cff"/>
-    <ds:schemaRef ds:uri="92ab9642-0aab-44de-b012-9f00b4c0dc56"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3610,9 +3593,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66B0185D-0079-420A-8018-4117B6CFA962}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{410EA7CD-8428-4838-8AA2-CE3DCE6A747C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="fd20df89-4048-49a6-a67a-390eaa975cff"/>
+    <ds:schemaRef ds:uri="92ab9642-0aab-44de-b012-9f00b4c0dc56"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/CiPA28.xlsx
+++ b/CiPA28.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/finsberg/local/src/reproduce-ecg-upv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B6A126-D11D-0A4D-90F3-8A62F780037C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDAC6BD-712C-A344-AB42-07C849B32571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{2505763F-C0DE-45D9-9152-C347D67BEC19}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{2505763F-C0DE-45D9-9152-C347D67BEC19}"/>
   </bookViews>
   <sheets>
     <sheet name="fraction" sheetId="4" r:id="rId1"/>
@@ -226,10 +226,10 @@
     <t>TdP</t>
   </si>
   <si>
-    <t>Quinidine-TdP</t>
-  </si>
-  <si>
-    <t>Clozapine-TdP</t>
+    <t>Quinidine_TdP</t>
+  </si>
+  <si>
+    <t>Clozapine_TdP</t>
   </si>
 </sst>
 </file>
@@ -838,7 +838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85AA3245-A2F9-47AC-BC55-B58C081B6EC1}">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1921,7 +1921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED62F087-9FE5-4C8B-92F3-BA311049ACFA}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3313,14 +3313,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="fd20df89-4048-49a6-a67a-390eaa975cff" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006E43017B494BB149B6A2335A5C790C9A" ma:contentTypeVersion="17" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="506d71b03f66a101d5518de95d44f535">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="fd20df89-4048-49a6-a67a-390eaa975cff" xmlns:ns4="92ab9642-0aab-44de-b012-9f00b4c0dc56" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b1061fe56412549e533d1e88f97579ff" ns3:_="" ns4:_="">
     <xsd:import namespace="fd20df89-4048-49a6-a67a-390eaa975cff"/>
@@ -3567,6 +3559,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="fd20df89-4048-49a6-a67a-390eaa975cff" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66B0185D-0079-420A-8018-4117B6CFA962}">
   <ds:schemaRefs>
@@ -3576,23 +3576,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13E2453B-FDCB-4FD8-976D-FFA0386AE37D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="92ab9642-0aab-44de-b012-9f00b4c0dc56"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="fd20df89-4048-49a6-a67a-390eaa975cff"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{410EA7CD-8428-4838-8AA2-CE3DCE6A747C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3609,4 +3592,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13E2453B-FDCB-4FD8-976D-FFA0386AE37D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="92ab9642-0aab-44de-b012-9f00b4c0dc56"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="fd20df89-4048-49a6-a67a-390eaa975cff"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>